--- a/biology/Zoologie/Liste_de_crustacés_endémiques_de_France/Liste_de_crustacés_endémiques_de_France.xlsx
+++ b/biology/Zoologie/Liste_de_crustacés_endémiques_de_France/Liste_de_crustacés_endémiques_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce biologique est dite endémique d'une zone géographique lorsqu'elle n'existe que dans cette zone à l'état spontané.
 Cet article liste les espèces de crustacés endémiques de France (départements métropolitains, départements d'outre-mer et collectivités d'outre-mer, à l'exclusion des territoires d'outre-mer). Les espèces éteintes sont prises en considération si elles ont été observées vivantes après 1500.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ingolfiellidés
-Ingolfiella thibaudi (nappes phréatiques de l'Ardèche et du Chassezac)
-Niphargidés
-Niphargus balazuci (grotte du Colombier, Ardèche)
-Niphargus gineti (Causses)
-Niphargus ladmiraulti (entre Loire et Garonne)</t>
+          <t>Ingolfiellidés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ingolfiella thibaudi (nappes phréatiques de l'Ardèche et du Chassezac)</t>
         </is>
       </c>
     </row>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +557,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Amphipodes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niphargidés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Niphargus balazuci (grotte du Colombier, Ardèche)
+Niphargus gineti (Causses)
+Niphargus ladmiraulti (entre Loire et Garonne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Copépodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Canthocamptidés
-Antrocamptus catherinae
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Canthocamptidés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Antrocamptus catherinae
 Antrocamptus chappuisi
 Antrocamptus longifurcatus
 Antrocamptus stygius
@@ -558,52 +614,227 @@
 Ceuthonectes bulbiseta
 Ceuthonectes chappuisi
 Ceuthonectes gallicus
-Ceuthonectes vievillae
-Parasténocarididés
-Parastenocaris boulouensis
+Ceuthonectes vievillae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Copépodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Parasténocarididés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Parastenocaris boulouensis
 Parastenocaris douellensis</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Isopodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Asellidés
-Proasellus beroni (Corse)
-Proasellus racovitzai (système souterrain du Goueil-di-Her, Haute-Garonne)
-Cirolanidés
-Faucheria faucheri (Languedoc)
-Sphaeromides raymondi (Ardèche et Hérault)
-Sphaeromatidés
-Caecosphaeroma burgundum (est du Bassin parisien et Vendée)
-Caecosphaeroma virei (Jura franc-comtois)
-Sténasellidés
-Stenasellus buili (karst de l'Aude, de l'Hérault et des Pyrénées-Orientales)
-Trichoniscidés
-Nesiotoniscus corsicus (Corse)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Asellidés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Proasellus beroni (Corse)
+Proasellus racovitzai (système souterrain du Goueil-di-Her, Haute-Garonne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Isopodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cirolanidés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Faucheria faucheri (Languedoc)
+Sphaeromides raymondi (Ardèche et Hérault)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Isopodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sphaeromatidés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Caecosphaeroma burgundum (est du Bassin parisien et Vendée)
+Caecosphaeroma virei (Jura franc-comtois)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Isopodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sténasellidés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Stenasellus buili (karst de l'Aude, de l'Hérault et des Pyrénées-Orientales)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Isopodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Trichoniscidés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nesiotoniscus corsicus (Corse)
 Nesiotoniscus ribensis
 Oritoniscus cebenicus
 Oritoniscus legrandi
@@ -613,71 +844,149 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Ostracodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Entocythéridés
-Sphaeromicola cebennica
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Entocythéridés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sphaeromicola cebennica
 Sphaeromicola juberthiei</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Décapodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Atyidés
-Bresilia corsicana
-Troglocaris inermis (sud de la France ; grottes)
-Hippolytidés
-Eualus marioni
-Palaemonidés
-Balssia noeli</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Atyidés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bresilia corsicana
+Troglocaris inermis (sud de la France ; grottes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décapodes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hippolytidés</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Eualus marioni</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_crustacés_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_crustac%C3%A9s_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décapodes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Palaemonidés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Balssia noeli</t>
         </is>
       </c>
     </row>
